--- a/tesztadat.xlsx
+++ b/tesztadat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balázs\Desktop\trafiprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balázs\Desktop\pythonProjects\trafiprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D6E069-6DBE-4116-897B-DFBEDDC63B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29A0223-5813-4E1E-9D34-C00C09230310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2100" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>H,ABC-123,A,sz,108,12:13:14</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>GR,IBX-5470,C,b,87,07:12:45</t>
+  </si>
+  <si>
+    <t>10,135,143</t>
   </si>
 </sst>
 </file>
@@ -351,26 +354,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>

--- a/tesztadat.xlsx
+++ b/tesztadat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balázs\Desktop\pythonProjects\trafiprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balázs\Desktop\pythonProjects\trafiprojekt\traffipax-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29A0223-5813-4E1E-9D34-C00C09230310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CBD63C-6144-4359-B52C-7EC7593295CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>H,ABC-123,A,sz,108,12:13:14</t>
-  </si>
-  <si>
-    <t>A,S-578-Il,B,sm,134,18:09:23</t>
-  </si>
-  <si>
-    <t>GR,IBX-5470,C,b,87,07:12:45</t>
-  </si>
-  <si>
-    <t>10,135,143</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>10,135,145</t>
+  </si>
+  <si>
+    <t>H,ABC-123,C,sz,119,13:00:00</t>
+  </si>
+  <si>
+    <t>A,S-578-Il,B,m,134,18:09:23</t>
+  </si>
+  <si>
+    <t>GR,IBX-5470,A,b,87,07:10:00</t>
+  </si>
+  <si>
+    <t>GR,IBX-5470,B,b,40,07:14:00</t>
+  </si>
+  <si>
+    <t>GR,IBX-5470,C,b,40,07:20:00</t>
+  </si>
+  <si>
+    <t>H,KZK-252,A,b,101,06:10:12</t>
+  </si>
+  <si>
+    <t>H,KZK-252,B,b,101,09:50:00</t>
+  </si>
+  <si>
+    <t>H,KZK-252,C,b,101,10:12:00</t>
   </si>
 </sst>
 </file>
@@ -354,30 +369,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
